--- a/xlsx/塞浦路斯_intext.xlsx
+++ b/xlsx/塞浦路斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
   <si>
     <t>塞浦路斯</t>
   </si>
@@ -29,7 +29,7 @@
     <t>塞浦路斯岛</t>
   </si>
   <si>
-    <t>政策_政策_美國_塞浦路斯</t>
+    <t>政策_政策_美国_塞浦路斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%9B%BD%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%A2%82</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>尼古西亞</t>
+    <t>尼古西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>土耳其語</t>
+    <t>土耳其语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E4%BA%BA</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -215,43 +215,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%80%BB%E7%BB%9F</t>
@@ -293,25 +293,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A7%91%E6%96%AF%C2%B7%E9%98%BF%E7%B4%8D%E6%96%AF%E5%A1%94%E5%A4%8F%E5%AD%A3%E6%96%AF</t>
   </si>
   <si>
-    <t>尼科斯·阿納斯塔夏季斯</t>
+    <t>尼科斯·阿纳斯塔夏季斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CY</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%96%87</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>新石器時代</t>
+    <t>新石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西亞</t>
+    <t>西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8F%B0</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%82%81%E8%80%B6%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>烏邁耶王朝</t>
+    <t>乌迈耶王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF</t>
@@ -479,25 +479,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧斯曼帝國</t>
+    <t>奥斯曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
   </si>
   <si>
-    <t>亞歷山大大帝</t>
+    <t>亚历山大大帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>大英國協</t>
+    <t>大英国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%97%AE%E9%A2%98</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北塞浦路斯土耳其共和國</t>
+    <t>北塞浦路斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/De_jure</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>軍事基地</t>
+    <t>军事基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/De_facto</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>南賽普勒斯</t>
+    <t>南赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%8E%86%E5%8F%B2</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E8%A1%8C%E7%9C%81</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占庭帝國</t>
+    <t>拜占庭帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -635,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BD%84%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>直轄殖民地</t>
+    <t>直辖殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯合政府</t>
+    <t>联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8F%B2%C2%B7%E5%AE%89%E5%8D%97</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國會員國</t>
+    <t>联合国会员国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>聯合國秘書長</t>
+    <t>联合国秘书长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%85%AC%E5%86%B3</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>塞浦路斯行政區劃</t>
+    <t>塞浦路斯行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A7%91%E8%A5%BF%E4%BA%9A</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E8%81%AF%E5%90%88%E5%9C%8B%E7%B7%A9%E8%A1%9D%E5%8D%80</t>
   </si>
   <si>
-    <t>塞浦路斯聯合國緩衝區</t>
+    <t>塞浦路斯联合国缓冲区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E5%92%8C%E9%83%A8%E9%98%9F</t>
@@ -791,9 +791,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%9C%8B</t>
   </si>
   <si>
-    <t>島國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
   </si>
   <si>
@@ -809,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%AD%87%E6%B2%B3</t>
   </si>
   <si>
-    <t>間歇河</t>
+    <t>间歇河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>亞熱帶地中海型氣候</t>
+    <t>亚热带地中海型气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3</t>
@@ -833,19 +830,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>塞浦路斯經濟</t>
+    <t>塞浦路斯经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9D%87%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>人均國內生產總值</t>
+    <t>人均国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%82%B5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>歐債危機</t>
+    <t>欧债危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83%E5%8C%BA</t>
@@ -857,19 +854,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%AC%BE%E6%A9%9F</t>
   </si>
   <si>
-    <t>提款機</t>
+    <t>提款机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%A0%E6%8F%90</t>
   </si>
   <si>
-    <t>擠提</t>
+    <t>挤提</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
@@ -899,25 +896,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%B1%8D%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>外籍勞工</t>
+    <t>外籍劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%AE%97%E6%95%99</t>
@@ -929,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>賽普勒斯教會</t>
+    <t>赛普勒斯教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99%E9%80%8A%E5%B0%BC%E6%B4%BE</t>
@@ -947,15 +944,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%95%99%E8%82%B2</t>
   </si>
   <si>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>塞浦路斯軍事</t>
+    <t>塞浦路斯军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%A4%AB%E6%B4%9B%E6%96%AF%C2%B7%E5%BA%B7%E8%92%82%E5%BE%B7%E6%96%AF</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2012年夏季奧林匹克運動會</t>
+    <t>2012年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E8%BE%BE%E8%92%82%E6%96%AF</t>
@@ -989,15 +983,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>塞浦路斯問題</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
   </si>
   <si>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>Template talk-亞洲</t>
+    <t>Template talk-亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
@@ -1055,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -1079,9 +1070,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
   </si>
   <si>
@@ -1109,9 +1097,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%8E%B1</t>
   </si>
   <si>
@@ -1175,9 +1160,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
@@ -1223,9 +1205,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
   </si>
   <si>
@@ -1253,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
+    <t>阿布哈兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
@@ -1313,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
@@ -1349,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -1367,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -1379,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1391,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1415,9 +1394,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
@@ -1439,9 +1415,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
   </si>
   <si>
@@ -1463,9 +1436,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -1589,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1607,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1637,13 +1607,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1655,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1667,13 +1637,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1691,13 +1661,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1709,25 +1679,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>希腊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1769,19 +1736,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -1799,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
@@ -1853,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
@@ -1943,13 +1910,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
@@ -1997,13 +1964,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>直布羅陀海峽</t>
+    <t>直布罗陀海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
@@ -2021,39 +1988,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
   </si>
   <si>
@@ -2201,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -2219,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2279,19 +2231,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -2321,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -2333,9 +2285,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>科科斯（基林）群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2345,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -2363,7 +2312,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -2405,9 +2354,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>英属印度洋领地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2435,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -2453,7 +2399,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B3%B6%E8%88%87%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>南喬治亞島與南桑威奇群島</t>
+    <t>南乔治亚岛与南桑威奇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E4%B8%8E%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -2465,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -2477,7 +2423,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -2489,7 +2435,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -2507,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -2555,7 +2501,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -2585,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -2633,7 +2579,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -2675,7 +2621,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2693,13 +2639,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -2741,19 +2687,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A2%A8%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古風時期</t>
+    <t>古风时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古典希臘時期</t>
+    <t>古典希腊时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%99%82%E4%BB%A3%E7%9A%84%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘化時代的希臘</t>
+    <t>希腊化时代的希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%9A%84%E7%BD%97%E9%A9%AC%E6%97%B6%E6%9C%9F</t>
@@ -2765,13 +2711,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E9%81%94%E5%B0%BC%E7%88%BE%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>達達尼爾海峽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓王國</t>
+    <t>马其顿王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E8%BE%BE</t>
@@ -2795,19 +2738,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E6%AF%94%E6%96%AF_(%E5%B8%8C%E8%87%98)</t>
   </si>
   <si>
-    <t>底比斯 (希臘)</t>
+    <t>底比斯 (希腊)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%B3%89%E9%97%9C</t>
   </si>
   <si>
-    <t>溫泉關</t>
+    <t>温泉关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛奧尼亞</t>
+    <t>爱奥尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%88%A9%E4%BA%9A</t>
@@ -2921,13 +2864,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>古希臘殖民地</t>
+    <t>古希腊殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘農業</t>
+    <t>古希腊农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
@@ -2945,7 +2888,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>古希臘經濟</t>
+    <t>古希腊经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
@@ -2957,25 +2900,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>古希臘法律</t>
+    <t>古希腊法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%B3%A3%E6%B7%AB%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘賣淫業</t>
+    <t>古希腊卖淫业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古希臘宗教</t>
+    <t>古希腊宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%8B%B1%E9%9B%84%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>希臘英雄崇拜</t>
+    <t>希腊英雄崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
@@ -3005,19 +2948,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%91%A1%E8%90%84%E9%85%92</t>
   </si>
   <si>
-    <t>古希臘葡萄酒</t>
+    <t>古希腊葡萄酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古希臘同性戀</t>
+    <t>古希腊同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%B0%91%E5%B9%B4%E6%84%9B</t>
   </si>
   <si>
-    <t>古希臘少年愛</t>
+    <t>古希腊少年爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E4%B8%A7%E8%91%AC</t>
@@ -3095,7 +3038,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%90%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>高爾吉亞</t>
+    <t>高尔吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%97%A8%E5%B0%BC%E5%BE%B7</t>
@@ -3173,7 +3116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%A5%BF%E4%BF%84%E5%BE%B7</t>
@@ -3209,13 +3152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>普魯塔克</t>
+    <t>普鲁塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>波利比烏斯</t>
+    <t>波利比乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%AD%9A</t>
@@ -3263,9 +3206,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
   </si>
   <si>
-    <t>亚历山大大帝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E8%A5%BF%E6%AF%94%E4%BA%9A%E5%BE%B7%E6%96%AF</t>
   </si>
   <si>
@@ -3281,7 +3221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%B8%95%E9%BD%8A%E5%A9%AD</t>
   </si>
   <si>
-    <t>阿斯帕齊婭</t>
+    <t>阿斯帕齐娅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%91%A9%E8%A5%BF%E5%B0%BC</t>
@@ -3317,7 +3257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E5%8F%A4%E6%A0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>來古格士</t>
+    <t>来古格士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E6%89%98%E9%82%A3%E7%9A%84%E7%B1%B3%E7%BD%97</t>
@@ -3353,19 +3293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古希臘建築</t>
+    <t>古希腊建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>古希臘神廟</t>
+    <t>古希腊神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%BE%B7%E5%AB%A9%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>帕德嫩神廟</t>
+    <t>帕德嫩神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -3377,7 +3317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%A1%9B%E5%9F%8E</t>
   </si>
   <si>
-    <t>雅典衛城</t>
+    <t>雅典卫城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8%E9%98%BF%E5%93%A5%E6%8B%89</t>
@@ -3389,7 +3329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>奧林匹亞宙斯神廟</t>
+    <t>奥林匹亚宙斯神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%B7%AE%E6%96%AF%E6%89%98%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -3401,13 +3341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>古希臘神廟列表</t>
+    <t>古希腊神庙列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>古希臘藝術</t>
+    <t>古希腊艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%99%B6%E5%99%A8</t>
@@ -3419,7 +3359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E9%9B%95%E5%88%BB</t>
   </si>
   <si>
-    <t>古希臘雕刻</t>
+    <t>古希腊雕刻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%8F%E5%89%A7</t>
@@ -3431,13 +3371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>希臘史學</t>
+    <t>希腊史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>古希臘天文學</t>
+    <t>古希腊天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%B0%E5%AD%A6</t>
@@ -3449,31 +3389,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古希臘語</t>
+    <t>古希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始希臘語</t>
+    <t>原始希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>邁錫尼希臘語</t>
+    <t>迈锡尼希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿提卡希臘語</t>
+    <t>阿提卡希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用希臘語</t>
+    <t>通用希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97A</t>
@@ -3491,7 +3431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>塞浦路斯音節文字</t>
+    <t>塞浦路斯音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
@@ -3503,7 +3443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8D%91%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>優卑亞字母</t>
+    <t>优卑亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%AC%A7%E6%B4%B2</t>
@@ -3515,13 +3455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3545,7 +3485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3557,13 +3497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
@@ -7858,7 +7798,7 @@
         <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7884,10 +7824,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7913,10 +7853,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7942,10 +7882,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7971,10 +7911,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F140" t="s">
         <v>265</v>
-      </c>
-      <c r="F140" t="s">
-        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8000,10 +7940,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
         <v>267</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -8029,10 +7969,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
         <v>269</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8058,10 +7998,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>271</v>
-      </c>
-      <c r="F143" t="s">
-        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8087,10 +8027,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>272</v>
+      </c>
+      <c r="F144" t="s">
         <v>273</v>
-      </c>
-      <c r="F144" t="s">
-        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8116,10 +8056,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>274</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
-      </c>
-      <c r="F145" t="s">
-        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8145,10 +8085,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
         <v>277</v>
-      </c>
-      <c r="F146" t="s">
-        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8174,10 +8114,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" t="s">
         <v>279</v>
-      </c>
-      <c r="F147" t="s">
-        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8203,10 +8143,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
         <v>281</v>
-      </c>
-      <c r="F148" t="s">
-        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8232,10 +8172,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F149" t="s">
         <v>283</v>
-      </c>
-      <c r="F149" t="s">
-        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8261,10 +8201,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" t="s">
         <v>285</v>
-      </c>
-      <c r="F150" t="s">
-        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8319,10 +8259,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>286</v>
+      </c>
+      <c r="F152" t="s">
         <v>287</v>
-      </c>
-      <c r="F152" t="s">
-        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -8348,10 +8288,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>288</v>
+      </c>
+      <c r="F153" t="s">
         <v>289</v>
-      </c>
-      <c r="F153" t="s">
-        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8377,10 +8317,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>290</v>
+      </c>
+      <c r="F154" t="s">
         <v>291</v>
-      </c>
-      <c r="F154" t="s">
-        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8406,10 +8346,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>292</v>
+      </c>
+      <c r="F155" t="s">
         <v>293</v>
-      </c>
-      <c r="F155" t="s">
-        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8435,10 +8375,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>294</v>
+      </c>
+      <c r="F156" t="s">
         <v>295</v>
-      </c>
-      <c r="F156" t="s">
-        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8464,10 +8404,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>296</v>
+      </c>
+      <c r="F157" t="s">
         <v>297</v>
-      </c>
-      <c r="F157" t="s">
-        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8493,10 +8433,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>298</v>
+      </c>
+      <c r="F158" t="s">
         <v>299</v>
-      </c>
-      <c r="F158" t="s">
-        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -8522,10 +8462,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>300</v>
+      </c>
+      <c r="F159" t="s">
         <v>301</v>
-      </c>
-      <c r="F159" t="s">
-        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8551,10 +8491,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>302</v>
+      </c>
+      <c r="F160" t="s">
         <v>303</v>
-      </c>
-      <c r="F160" t="s">
-        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8580,10 +8520,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>304</v>
+      </c>
+      <c r="F161" t="s">
         <v>305</v>
-      </c>
-      <c r="F161" t="s">
-        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8609,10 +8549,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>306</v>
+      </c>
+      <c r="F162" t="s">
         <v>307</v>
-      </c>
-      <c r="F162" t="s">
-        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8638,10 +8578,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>308</v>
+      </c>
+      <c r="F163" t="s">
         <v>309</v>
-      </c>
-      <c r="F163" t="s">
-        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8667,10 +8607,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>54</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8696,10 +8636,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8725,10 +8665,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8754,10 +8694,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8783,10 +8723,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8812,10 +8752,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8841,10 +8781,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8870,10 +8810,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8899,10 +8839,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8928,10 +8868,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8957,10 +8897,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>10</v>
@@ -8986,10 +8926,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9015,10 +8955,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9044,10 +8984,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9073,10 +9013,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9102,10 +9042,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9131,10 +9071,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9160,10 +9100,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9189,10 +9129,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9218,10 +9158,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9247,10 +9187,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9276,10 +9216,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9305,10 +9245,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -9334,10 +9274,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -9363,10 +9303,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9392,10 +9332,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9421,10 +9361,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9450,10 +9390,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -9479,10 +9419,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -9508,10 +9448,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9537,10 +9477,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9566,10 +9506,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -9595,10 +9535,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9624,10 +9564,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -9653,10 +9593,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9682,10 +9622,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9711,10 +9651,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9740,10 +9680,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9769,10 +9709,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -9798,10 +9738,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9827,10 +9767,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9856,10 +9796,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9885,10 +9825,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9914,10 +9854,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9943,10 +9883,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9972,10 +9912,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="G209" t="n">
         <v>7</v>
@@ -10001,10 +9941,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10030,10 +9970,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -10059,10 +9999,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10088,10 +10028,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10117,10 +10057,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10146,10 +10086,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10175,10 +10115,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -10204,10 +10144,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10233,10 +10173,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -10262,10 +10202,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -10291,10 +10231,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10320,10 +10260,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -10349,10 +10289,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10378,10 +10318,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -10407,10 +10347,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10436,10 +10376,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10465,10 +10405,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10494,10 +10434,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10523,10 +10463,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -10552,10 +10492,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -10581,10 +10521,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10610,10 +10550,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10639,10 +10579,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -10668,10 +10608,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10697,10 +10637,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10726,10 +10666,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10755,10 +10695,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -10784,10 +10724,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10813,10 +10753,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10842,10 +10782,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10871,10 +10811,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10900,10 +10840,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>126</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10929,10 +10869,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10958,10 +10898,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10987,10 +10927,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -11016,10 +10956,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>124</v>
       </c>
       <c r="G245" t="n">
         <v>6</v>
@@ -11045,10 +10985,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11074,10 +11014,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>5</v>
@@ -11103,10 +11043,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -11132,10 +11072,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>158</v>
       </c>
       <c r="G249" t="n">
         <v>6</v>
@@ -11161,10 +11101,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -11190,10 +11130,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11219,10 +11159,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -11248,10 +11188,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -11277,10 +11217,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11306,10 +11246,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11335,10 +11275,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -11364,10 +11304,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -11393,10 +11333,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -11422,10 +11362,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11451,10 +11391,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11480,10 +11420,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11509,10 +11449,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11538,10 +11478,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>4</v>
@@ -11567,10 +11507,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>4</v>
@@ -11596,10 +11536,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -11625,10 +11565,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>4</v>
@@ -11654,10 +11594,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11683,10 +11623,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11712,10 +11652,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11741,10 +11681,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11770,10 +11710,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11799,10 +11739,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -11828,10 +11768,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>4</v>
@@ -11857,10 +11797,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>4</v>
@@ -11886,10 +11826,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11915,10 +11855,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11944,10 +11884,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11973,10 +11913,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -12002,10 +11942,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12031,10 +11971,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -12060,10 +12000,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -12089,10 +12029,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12118,10 +12058,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G283" t="n">
         <v>4</v>
@@ -12147,10 +12087,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12176,10 +12116,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -12205,10 +12145,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -12234,10 +12174,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>5</v>
@@ -12263,10 +12203,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>4</v>
@@ -12292,10 +12232,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12321,10 +12261,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="G290" t="n">
         <v>15</v>
@@ -12350,10 +12290,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -12379,10 +12319,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12408,10 +12348,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12437,10 +12377,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12466,10 +12406,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -12495,10 +12435,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G296" t="n">
         <v>4</v>
@@ -12524,10 +12464,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -12553,10 +12493,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -12582,10 +12522,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12611,10 +12551,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -12640,10 +12580,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12669,10 +12609,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12698,10 +12638,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12727,10 +12667,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12756,10 +12696,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12785,10 +12725,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12814,10 +12754,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12843,10 +12783,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12872,10 +12812,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12901,10 +12841,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12930,10 +12870,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12959,10 +12899,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12988,10 +12928,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F313" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -13017,10 +12957,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13046,10 +12986,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13075,10 +13015,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13104,13 +13044,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>260</v>
+      </c>
+      <c r="F317" t="s">
         <v>261</v>
       </c>
-      <c r="F317" t="s">
-        <v>262</v>
-      </c>
       <c r="G317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -13133,10 +13073,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13162,13 +13102,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F319" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -13191,10 +13131,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F320" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -13220,10 +13160,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -13249,10 +13189,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F322" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -13278,10 +13218,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13307,10 +13247,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -13336,10 +13276,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -13394,13 +13334,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13423,10 +13363,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13452,10 +13392,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13481,10 +13421,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -13510,10 +13450,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13539,10 +13479,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13568,10 +13508,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13597,13 +13537,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13626,10 +13566,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -13713,10 +13653,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F338" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -13742,10 +13682,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F339" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13771,10 +13711,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F340" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13800,10 +13740,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13829,10 +13769,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F342" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13858,10 +13798,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F343" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13887,10 +13827,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F344" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13916,10 +13856,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F345" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -13945,10 +13885,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F346" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13974,10 +13914,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F347" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14003,10 +13943,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F348" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -14032,10 +13972,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F349" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14119,10 +14059,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F352" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14148,10 +14088,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F353" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14177,10 +14117,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F354" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14206,10 +14146,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F355" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14235,10 +14175,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F356" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14264,10 +14204,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F357" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14293,10 +14233,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F358" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14322,10 +14262,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F359" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14351,10 +14291,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F360" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14380,10 +14320,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F361" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14409,10 +14349,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F362" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14438,10 +14378,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F363" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14467,10 +14407,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F364" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14496,10 +14436,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F365" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -14525,10 +14465,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F366" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14554,10 +14494,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F367" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14583,10 +14523,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F368" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14612,10 +14552,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F369" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -14670,10 +14610,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F371" t="s">
-        <v>668</v>
+        <v>478</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14699,10 +14639,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F372" t="s">
-        <v>670</v>
+        <v>542</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -14728,10 +14668,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F373" t="s">
-        <v>672</v>
+        <v>484</v>
       </c>
       <c r="G373" t="n">
         <v>3</v>
@@ -14757,10 +14697,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="F374" t="s">
-        <v>674</v>
+        <v>496</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14786,10 +14726,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F375" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G375" t="n">
         <v>4</v>
@@ -14815,10 +14755,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F376" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14844,10 +14784,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F377" t="s">
-        <v>678</v>
+        <v>498</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14873,10 +14813,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F378" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -14902,10 +14842,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F379" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14931,10 +14871,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F380" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14960,10 +14900,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F381" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14989,10 +14929,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F382" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15018,10 +14958,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F383" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15047,10 +14987,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="F384" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15076,10 +15016,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F385" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15105,10 +15045,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F386" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -15134,10 +15074,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F387" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -15163,10 +15103,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F388" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -15192,10 +15132,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F389" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -15221,10 +15161,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F390" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15250,10 +15190,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F391" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15279,10 +15219,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F392" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15308,10 +15248,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F393" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15337,10 +15277,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F394" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15366,10 +15306,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F395" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15395,10 +15335,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F396" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15424,10 +15364,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F397" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -15453,10 +15393,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="F398" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -15482,10 +15422,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F399" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15511,10 +15451,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F400" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15540,10 +15480,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F401" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15569,10 +15509,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F402" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15598,10 +15538,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F403" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15627,10 +15567,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F404" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15656,10 +15596,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F405" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -15685,10 +15625,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F406" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15714,10 +15654,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F407" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15743,10 +15683,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F408" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15772,10 +15712,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F409" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15801,10 +15741,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F410" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15830,10 +15770,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F411" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15859,10 +15799,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F412" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15888,10 +15828,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F413" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15917,10 +15857,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F414" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15946,10 +15886,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F415" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15975,10 +15915,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F416" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16004,10 +15944,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F417" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16033,10 +15973,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F418" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16062,10 +16002,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F419" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16091,10 +16031,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F420" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16120,10 +16060,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F421" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16149,13 +16089,13 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F422" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -16178,10 +16118,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F423" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16207,10 +16147,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F424" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16236,10 +16176,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F425" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16265,10 +16205,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F426" t="s">
-        <v>772</v>
+        <v>447</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16294,10 +16234,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F427" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16323,10 +16263,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F428" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16352,10 +16292,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="F429" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16381,10 +16321,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="F430" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16410,10 +16350,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F431" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16439,10 +16379,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="F432" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16468,10 +16408,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="F433" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16497,10 +16437,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="F434" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16526,10 +16466,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F435" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16555,10 +16495,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F436" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16584,10 +16524,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F437" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16613,10 +16553,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F438" t="s">
-        <v>796</v>
+        <v>443</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16642,10 +16582,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="F439" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16671,10 +16611,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="F440" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16700,10 +16640,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="F441" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16729,10 +16669,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F442" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16758,10 +16698,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="F443" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16787,10 +16727,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="F444" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16816,10 +16756,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="F445" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16845,10 +16785,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="F446" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16874,10 +16814,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="F447" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16903,10 +16843,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="F448" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16932,10 +16872,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="F449" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="G449" t="n">
         <v>5</v>
@@ -16961,10 +16901,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="F450" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16990,10 +16930,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F451" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -17019,10 +16959,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F452" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G452" t="n">
         <v>3</v>
@@ -17048,10 +16988,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F453" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -17077,10 +17017,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F454" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17106,10 +17046,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="F455" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="G455" t="n">
         <v>3</v>
@@ -17135,10 +17075,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="F456" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17164,10 +17104,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="F457" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17193,10 +17133,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="F458" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17222,10 +17162,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="F459" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17251,10 +17191,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="F460" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17280,10 +17220,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="F461" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17309,10 +17249,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="F462" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17338,10 +17278,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="F463" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17367,10 +17307,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="F464" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17396,10 +17336,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="F465" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17425,10 +17365,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="F466" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17454,10 +17394,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="F467" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -17483,10 +17423,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="F468" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17512,10 +17452,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="F469" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17541,10 +17481,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="F470" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17570,10 +17510,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F471" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17599,10 +17539,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="F472" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17628,10 +17568,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="F473" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17657,10 +17597,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="F474" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17686,10 +17626,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="F475" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17715,10 +17655,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="F476" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17744,10 +17684,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="F477" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17773,10 +17713,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="F478" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17802,10 +17742,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="F479" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17831,10 +17771,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="F480" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17860,10 +17800,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="F481" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17889,10 +17829,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="F482" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17918,10 +17858,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="F483" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17947,10 +17887,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F484" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17976,10 +17916,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="F485" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18005,10 +17945,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="F486" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18034,10 +17974,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="F487" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18063,10 +18003,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F488" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G488" t="n">
         <v>2</v>
@@ -18092,10 +18032,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="F489" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18121,10 +18061,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="F490" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18150,10 +18090,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="F491" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18179,10 +18119,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="F492" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18208,10 +18148,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="F493" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18237,10 +18177,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="F494" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18266,10 +18206,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="F495" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18295,10 +18235,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="F496" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18324,10 +18264,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="F497" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18353,10 +18293,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="F498" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18382,10 +18322,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="F499" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18411,10 +18351,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="F500" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18440,10 +18380,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="F501" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18469,10 +18409,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="F502" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18498,10 +18438,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="F503" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18527,10 +18467,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="F504" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18556,10 +18496,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="F505" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18585,10 +18525,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F506" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18614,10 +18554,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="F507" t="s">
-        <v>916</v>
+        <v>619</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18643,10 +18583,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="F508" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18672,10 +18612,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="F509" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18701,10 +18641,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="F510" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18730,10 +18670,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="F511" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18759,10 +18699,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="F512" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18788,10 +18728,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="F513" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18817,10 +18757,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="F514" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -18846,10 +18786,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="F515" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18875,10 +18815,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="F516" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18904,10 +18844,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="F517" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18933,10 +18873,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="F518" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18962,10 +18902,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="F519" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18991,10 +18931,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="F520" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19020,10 +18960,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="F521" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19049,10 +18989,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="F522" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -19078,10 +19018,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="F523" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19107,10 +19047,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="F524" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19136,10 +19076,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="F525" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19165,10 +19105,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="F526" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19194,10 +19134,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="F527" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19223,10 +19163,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="F528" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -19252,10 +19192,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="F529" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19281,10 +19221,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="F530" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19310,10 +19250,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="F531" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19339,10 +19279,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="F532" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19368,10 +19308,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="F533" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19397,10 +19337,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="F534" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="G534" t="n">
         <v>2</v>
@@ -19426,10 +19366,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
       <c r="F535" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19455,10 +19395,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>973</v>
+        <v>954</v>
       </c>
       <c r="F536" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19484,10 +19424,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="F537" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="G537" t="n">
         <v>5</v>
@@ -19513,10 +19453,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="F538" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="G538" t="n">
         <v>4</v>
@@ -19542,10 +19482,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>979</v>
+        <v>960</v>
       </c>
       <c r="F539" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="G539" t="n">
         <v>2</v>
@@ -19571,10 +19511,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="F540" t="s">
-        <v>982</v>
+        <v>963</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19600,10 +19540,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="F541" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="G541" t="n">
         <v>5</v>
@@ -19629,10 +19569,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="F542" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19658,10 +19598,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>987</v>
+        <v>968</v>
       </c>
       <c r="F543" t="s">
-        <v>988</v>
+        <v>969</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19687,10 +19627,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>989</v>
+        <v>970</v>
       </c>
       <c r="F544" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19716,10 +19656,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="F545" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19745,10 +19685,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="F546" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19774,10 +19714,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="F547" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19803,10 +19743,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="F548" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19832,10 +19772,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="F549" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19861,10 +19801,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="F550" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19890,10 +19830,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="F551" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19919,10 +19859,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
       <c r="F552" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19948,10 +19888,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="F553" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19977,10 +19917,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="F554" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20006,10 +19946,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="F555" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20035,10 +19975,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
       <c r="F556" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20064,10 +20004,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="F557" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20093,10 +20033,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="F558" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20122,10 +20062,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="F559" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20151,10 +20091,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="F560" t="s">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20180,10 +20120,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="F561" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20209,10 +20149,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="F562" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20238,10 +20178,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="F563" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20267,10 +20207,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="F564" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20296,10 +20236,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="F565" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20325,10 +20265,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="F566" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20354,10 +20294,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="F567" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20383,10 +20323,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="F568" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20412,10 +20352,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="F569" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20441,10 +20381,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="F570" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20470,10 +20410,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="F571" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20499,10 +20439,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="F572" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20528,10 +20468,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="F573" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20557,10 +20497,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="F574" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20586,10 +20526,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="F575" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20615,10 +20555,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="F576" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20644,10 +20584,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="F577" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20673,10 +20613,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="F578" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20702,10 +20642,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="F579" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20731,10 +20671,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="F580" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20760,10 +20700,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="F581" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20789,10 +20729,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="F582" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20818,10 +20758,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="F583" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20847,10 +20787,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="F584" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20876,10 +20816,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="F585" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20905,10 +20845,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="F586" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20934,10 +20874,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="F587" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20963,10 +20903,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="F588" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20992,10 +20932,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="F589" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21021,10 +20961,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="F590" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21050,10 +20990,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="F591" t="s">
-        <v>1082</v>
+        <v>156</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21079,10 +21019,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="F592" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21108,10 +21048,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
       <c r="F593" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21137,10 +21077,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="F594" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21166,10 +21106,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
       <c r="F595" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21195,10 +21135,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="F596" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21224,10 +21164,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
       <c r="F597" t="s">
-        <v>1094</v>
+        <v>1074</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21253,10 +21193,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="F598" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21282,10 +21222,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="F599" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21311,10 +21251,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="F600" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21340,10 +21280,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="F601" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21369,10 +21309,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
       <c r="F602" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21398,10 +21338,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
       <c r="F603" t="s">
-        <v>1106</v>
+        <v>1086</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21427,10 +21367,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="F604" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21456,10 +21396,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="F605" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21485,10 +21425,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="F606" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="G606" t="n">
         <v>3</v>
@@ -21514,10 +21454,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="F607" t="s">
-        <v>1114</v>
+        <v>1094</v>
       </c>
       <c r="G607" t="n">
         <v>2</v>
@@ -21543,10 +21483,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="F608" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21572,10 +21512,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
       <c r="F609" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21601,10 +21541,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1119</v>
+        <v>1099</v>
       </c>
       <c r="F610" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21630,10 +21570,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1121</v>
+        <v>1101</v>
       </c>
       <c r="F611" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21659,10 +21599,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
       <c r="F612" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21688,10 +21628,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="F613" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21717,10 +21657,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="F614" t="s">
-        <v>1128</v>
+        <v>1108</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21746,10 +21686,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="F615" t="s">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21775,10 +21715,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="F616" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="G616" t="n">
         <v>2</v>
@@ -21804,10 +21744,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="F617" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21833,10 +21773,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="F618" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21862,10 +21802,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="F619" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21891,10 +21831,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="F620" t="s">
-        <v>1138</v>
+        <v>1118</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21920,10 +21860,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1139</v>
+        <v>1119</v>
       </c>
       <c r="F621" t="s">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21949,10 +21889,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
       <c r="F622" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21978,10 +21918,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="F623" t="s">
-        <v>1144</v>
+        <v>1124</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -22007,10 +21947,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="F624" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22036,10 +21976,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="F625" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22065,10 +22005,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
       <c r="F626" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22094,10 +22034,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="F627" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22123,10 +22063,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="F628" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22152,10 +22092,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="F629" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22181,10 +22121,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1157</v>
+        <v>1137</v>
       </c>
       <c r="F630" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22210,10 +22150,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
       <c r="F631" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22239,10 +22179,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="F632" t="s">
-        <v>1162</v>
+        <v>1142</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22268,10 +22208,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1163</v>
+        <v>1143</v>
       </c>
       <c r="F633" t="s">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22297,10 +22237,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1165</v>
+        <v>1145</v>
       </c>
       <c r="F634" t="s">
-        <v>1166</v>
+        <v>1146</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22326,10 +22266,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
       <c r="F635" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="G635" t="n">
         <v>3</v>
@@ -22355,10 +22295,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
       <c r="F636" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22384,10 +22324,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1171</v>
+        <v>1151</v>
       </c>
       <c r="F637" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22413,10 +22353,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="F638" t="s">
-        <v>1174</v>
+        <v>1154</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22442,10 +22382,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
       <c r="F639" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22471,10 +22411,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="F640" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22500,10 +22440,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="F641" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22529,10 +22469,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="F642" t="s">
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22558,10 +22498,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="F643" t="s">
-        <v>1184</v>
+        <v>1164</v>
       </c>
       <c r="G643" t="n">
         <v>13</v>
@@ -22587,10 +22527,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="F644" t="s">
-        <v>1185</v>
+        <v>1165</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>

--- a/xlsx/塞浦路斯_intext.xlsx
+++ b/xlsx/塞浦路斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1200">
   <si>
     <t>塞浦路斯</t>
   </si>
@@ -29,7 +29,7 @@
     <t>塞浦路斯岛</t>
   </si>
   <si>
-    <t>政策_政策_美國_塞浦路斯</t>
+    <t>体育运动_体育运动_古埃及_塞浦路斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%9B%BD%E6%97%97</t>
@@ -1466,10 +1466,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1586,10 +1610,16 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1628,10 +1658,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1718,18 +1748,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1754,6 +1784,12 @@
     <t>安道尔</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -1812,6 +1848,12 @@
   </si>
   <si>
     <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -3921,7 +3963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I644"/>
+  <dimension ref="A1:I651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5686,7 +5728,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -8325,7 +8367,7 @@
         <v>288</v>
       </c>
       <c r="G152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -11022,7 +11064,7 @@
         <v>474</v>
       </c>
       <c r="G245" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -11167,7 +11209,7 @@
         <v>484</v>
       </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -11225,7 +11267,7 @@
         <v>488</v>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -11254,7 +11296,7 @@
         <v>490</v>
       </c>
       <c r="G253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -11283,7 +11325,7 @@
         <v>492</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -11370,7 +11412,7 @@
         <v>498</v>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -11399,7 +11441,7 @@
         <v>500</v>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11457,7 +11499,7 @@
         <v>504</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -11486,7 +11528,7 @@
         <v>506</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11515,7 +11557,7 @@
         <v>508</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -11544,7 +11586,7 @@
         <v>510</v>
       </c>
       <c r="G263" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -11573,7 +11615,7 @@
         <v>512</v>
       </c>
       <c r="G264" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11602,7 +11644,7 @@
         <v>514</v>
       </c>
       <c r="G265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11631,7 +11673,7 @@
         <v>516</v>
       </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11660,7 +11702,7 @@
         <v>518</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -11689,7 +11731,7 @@
         <v>520</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11718,7 +11760,7 @@
         <v>522</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -11747,7 +11789,7 @@
         <v>524</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11776,7 +11818,7 @@
         <v>526</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11805,7 +11847,7 @@
         <v>528</v>
       </c>
       <c r="G272" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -11834,7 +11876,7 @@
         <v>530</v>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11863,7 +11905,7 @@
         <v>532</v>
       </c>
       <c r="G274" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11892,7 +11934,7 @@
         <v>534</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11921,7 +11963,7 @@
         <v>536</v>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11950,7 +11992,7 @@
         <v>538</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11979,7 +12021,7 @@
         <v>540</v>
       </c>
       <c r="G278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -12008,7 +12050,7 @@
         <v>542</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -12037,7 +12079,7 @@
         <v>544</v>
       </c>
       <c r="G280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -12124,7 +12166,7 @@
         <v>550</v>
       </c>
       <c r="G283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -12182,7 +12224,7 @@
         <v>554</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -12240,7 +12282,7 @@
         <v>558</v>
       </c>
       <c r="G287" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -12327,7 +12369,7 @@
         <v>564</v>
       </c>
       <c r="G290" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -12356,7 +12398,7 @@
         <v>566</v>
       </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -12385,7 +12427,7 @@
         <v>568</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -12414,7 +12456,7 @@
         <v>570</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12472,7 +12514,7 @@
         <v>574</v>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -12501,7 +12543,7 @@
         <v>576</v>
       </c>
       <c r="G296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12530,7 +12572,7 @@
         <v>578</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12559,7 +12601,7 @@
         <v>580</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12617,7 +12659,7 @@
         <v>584</v>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12646,7 +12688,7 @@
         <v>586</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12675,7 +12717,7 @@
         <v>588</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12733,7 +12775,7 @@
         <v>592</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12907,7 +12949,7 @@
         <v>604</v>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -12965,7 +13007,7 @@
         <v>608</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12988,13 +13030,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>479</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -13017,10 +13059,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13046,10 +13088,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13075,10 +13117,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13104,13 +13146,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>261</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>262</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -13133,10 +13175,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13162,13 +13204,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F319" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -13191,10 +13233,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="F320" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -13220,13 +13262,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -13249,13 +13291,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="F322" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13278,13 +13320,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -13307,13 +13349,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>261</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>262</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13336,13 +13378,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -13365,13 +13407,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>129</v>
+        <v>631</v>
       </c>
       <c r="F326" t="s">
-        <v>130</v>
+        <v>632</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13394,13 +13436,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>557</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>558</v>
       </c>
       <c r="G327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13423,10 +13465,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13452,10 +13494,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>553</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>554</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13481,10 +13523,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -13510,13 +13552,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -13539,10 +13581,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13568,10 +13610,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>129</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>130</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13655,10 +13697,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>169</v>
+        <v>645</v>
       </c>
       <c r="F336" t="s">
-        <v>170</v>
+        <v>646</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -13684,10 +13726,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>169</v>
+        <v>647</v>
       </c>
       <c r="F337" t="s">
-        <v>170</v>
+        <v>648</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -13713,13 +13755,13 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>425</v>
+        <v>649</v>
       </c>
       <c r="F338" t="s">
-        <v>426</v>
+        <v>650</v>
       </c>
       <c r="G338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13742,10 +13784,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>439</v>
+        <v>651</v>
       </c>
       <c r="F339" t="s">
-        <v>440</v>
+        <v>652</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13771,13 +13813,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="F340" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -13800,13 +13842,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13829,13 +13871,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13858,13 +13900,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>651</v>
+        <v>169</v>
       </c>
       <c r="F343" t="s">
-        <v>652</v>
+        <v>170</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -13887,10 +13929,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>653</v>
+        <v>169</v>
       </c>
       <c r="F344" t="s">
-        <v>654</v>
+        <v>170</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13916,13 +13958,13 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>655</v>
+        <v>425</v>
       </c>
       <c r="F345" t="s">
-        <v>656</v>
+        <v>426</v>
       </c>
       <c r="G345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13945,13 +13987,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>657</v>
+        <v>439</v>
       </c>
       <c r="F346" t="s">
-        <v>658</v>
+        <v>440</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13980,7 +14022,7 @@
         <v>660</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -14003,10 +14045,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -14032,10 +14074,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14061,10 +14103,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>169</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>170</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14090,13 +14132,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>169</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>170</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -14119,13 +14161,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>443</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -14148,10 +14190,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>425</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>426</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14177,10 +14219,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>439</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>440</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14206,13 +14248,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>661</v>
+        <v>591</v>
       </c>
       <c r="F355" t="s">
-        <v>662</v>
+        <v>592</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -14235,10 +14277,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>645</v>
+        <v>591</v>
       </c>
       <c r="F356" t="s">
-        <v>646</v>
+        <v>592</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14264,10 +14306,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>647</v>
+        <v>169</v>
       </c>
       <c r="F357" t="s">
-        <v>648</v>
+        <v>170</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14293,10 +14335,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>547</v>
+        <v>169</v>
       </c>
       <c r="F358" t="s">
-        <v>548</v>
+        <v>170</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14322,10 +14364,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="F359" t="s">
-        <v>546</v>
+        <v>444</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14351,10 +14393,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>543</v>
+        <v>425</v>
       </c>
       <c r="F360" t="s">
-        <v>544</v>
+        <v>426</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14380,10 +14422,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="F361" t="s">
-        <v>622</v>
+        <v>440</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14409,10 +14451,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>623</v>
+        <v>675</v>
       </c>
       <c r="F362" t="s">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14438,10 +14480,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>479</v>
+        <v>659</v>
       </c>
       <c r="F363" t="s">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14467,10 +14509,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="F364" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14496,13 +14538,13 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>663</v>
+        <v>557</v>
       </c>
       <c r="F365" t="s">
-        <v>664</v>
+        <v>558</v>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -14525,10 +14567,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
       <c r="F366" t="s">
-        <v>630</v>
+        <v>556</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14554,10 +14596,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>631</v>
+        <v>553</v>
       </c>
       <c r="F367" t="s">
-        <v>632</v>
+        <v>554</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14583,10 +14625,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F368" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14612,13 +14654,13 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="F369" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -14641,13 +14683,13 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>179</v>
+        <v>479</v>
       </c>
       <c r="F370" t="s">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="G370" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -14670,13 +14712,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="F371" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="G371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14699,13 +14741,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="F372" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="G372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14728,13 +14770,13 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="F373" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="G373" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -14757,13 +14799,13 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="F374" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="G374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -14786,13 +14828,13 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="F375" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="G375" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14815,10 +14857,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F376" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14844,13 +14886,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>677</v>
+        <v>179</v>
       </c>
       <c r="F377" t="s">
-        <v>678</v>
+        <v>180</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -14873,13 +14915,13 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F378" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14902,13 +14944,13 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F379" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14931,13 +14973,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F380" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14960,10 +15002,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F381" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14989,13 +15031,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
       <c r="F382" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="G382" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -15024,7 +15066,7 @@
         <v>690</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -15053,7 +15095,7 @@
         <v>692</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15082,7 +15124,7 @@
         <v>694</v>
       </c>
       <c r="G385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -15111,7 +15153,7 @@
         <v>696</v>
       </c>
       <c r="G386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -15140,7 +15182,7 @@
         <v>698</v>
       </c>
       <c r="G387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -15198,7 +15240,7 @@
         <v>702</v>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -15314,7 +15356,7 @@
         <v>710</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -15343,7 +15385,7 @@
         <v>712</v>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15372,7 +15414,7 @@
         <v>714</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -15401,7 +15443,7 @@
         <v>716</v>
       </c>
       <c r="G396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15424,13 +15466,13 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>603</v>
+        <v>717</v>
       </c>
       <c r="F397" t="s">
-        <v>604</v>
+        <v>718</v>
       </c>
       <c r="G397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15453,13 +15495,13 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F398" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -15482,13 +15524,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F399" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -15511,10 +15553,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F400" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15540,10 +15582,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F401" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15569,10 +15611,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F402" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15598,10 +15640,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F403" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15627,13 +15669,13 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>729</v>
+        <v>617</v>
       </c>
       <c r="F404" t="s">
-        <v>730</v>
+        <v>618</v>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -15691,7 +15733,7 @@
         <v>734</v>
       </c>
       <c r="G406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -15720,7 +15762,7 @@
         <v>736</v>
       </c>
       <c r="G407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -15807,7 +15849,7 @@
         <v>742</v>
       </c>
       <c r="G410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -15865,7 +15907,7 @@
         <v>746</v>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -15923,7 +15965,7 @@
         <v>750</v>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -16010,7 +16052,7 @@
         <v>756</v>
       </c>
       <c r="G417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -16097,7 +16139,7 @@
         <v>762</v>
       </c>
       <c r="G420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -16155,7 +16197,7 @@
         <v>766</v>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -16236,10 +16278,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>451</v>
+        <v>771</v>
       </c>
       <c r="F425" t="s">
-        <v>452</v>
+        <v>772</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16265,10 +16307,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F426" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16294,13 +16336,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F427" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16323,10 +16365,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F428" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16352,13 +16394,13 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F429" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -16381,10 +16423,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F430" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16410,10 +16452,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F431" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16439,10 +16481,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>783</v>
+        <v>451</v>
       </c>
       <c r="F432" t="s">
-        <v>784</v>
+        <v>452</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16729,10 +16771,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>581</v>
+        <v>803</v>
       </c>
       <c r="F442" t="s">
-        <v>582</v>
+        <v>804</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16758,10 +16800,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F443" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16787,10 +16829,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F444" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16816,10 +16858,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F445" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16845,10 +16887,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F446" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16874,10 +16916,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F447" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16903,10 +16945,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F448" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16932,13 +16974,13 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>815</v>
+        <v>593</v>
       </c>
       <c r="F449" t="s">
-        <v>816</v>
+        <v>594</v>
       </c>
       <c r="G449" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -16967,7 +17009,7 @@
         <v>818</v>
       </c>
       <c r="G450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16990,13 +17032,13 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>641</v>
+        <v>819</v>
       </c>
       <c r="F451" t="s">
-        <v>642</v>
+        <v>820</v>
       </c>
       <c r="G451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -17019,13 +17061,13 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>547</v>
+        <v>821</v>
       </c>
       <c r="F452" t="s">
-        <v>548</v>
+        <v>822</v>
       </c>
       <c r="G452" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -17048,13 +17090,13 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>545</v>
+        <v>823</v>
       </c>
       <c r="F453" t="s">
-        <v>546</v>
+        <v>824</v>
       </c>
       <c r="G453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H453" t="s">
         <v>4</v>
@@ -17077,10 +17119,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>651</v>
+        <v>825</v>
       </c>
       <c r="F454" t="s">
-        <v>652</v>
+        <v>826</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17106,13 +17148,13 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="F455" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="G455" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -17135,13 +17177,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="F456" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -17164,13 +17206,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="F457" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="G457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -17193,13 +17235,13 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>825</v>
+        <v>655</v>
       </c>
       <c r="F458" t="s">
-        <v>826</v>
+        <v>656</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -17222,13 +17264,13 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>827</v>
+        <v>557</v>
       </c>
       <c r="F459" t="s">
-        <v>828</v>
+        <v>558</v>
       </c>
       <c r="G459" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -17251,13 +17293,13 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>829</v>
+        <v>555</v>
       </c>
       <c r="F460" t="s">
-        <v>830</v>
+        <v>556</v>
       </c>
       <c r="G460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17280,10 +17322,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>831</v>
+        <v>665</v>
       </c>
       <c r="F461" t="s">
-        <v>832</v>
+        <v>666</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17315,7 +17357,7 @@
         <v>834</v>
       </c>
       <c r="G462" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -17460,7 +17502,7 @@
         <v>844</v>
       </c>
       <c r="G467" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -17570,10 +17612,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>557</v>
+        <v>851</v>
       </c>
       <c r="F471" t="s">
-        <v>558</v>
+        <v>852</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17599,10 +17641,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F472" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17628,10 +17670,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F473" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17657,13 +17699,13 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F474" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G474" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17686,10 +17728,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F475" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17715,10 +17757,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F476" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17744,10 +17786,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F477" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17773,10 +17815,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>863</v>
+        <v>567</v>
       </c>
       <c r="F478" t="s">
-        <v>864</v>
+        <v>568</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17947,10 +17989,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>341</v>
+        <v>875</v>
       </c>
       <c r="F484" t="s">
-        <v>342</v>
+        <v>876</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17976,10 +18018,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F485" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18005,10 +18047,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F486" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18034,10 +18076,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F487" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18063,13 +18105,13 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>623</v>
+        <v>883</v>
       </c>
       <c r="F488" t="s">
-        <v>624</v>
+        <v>884</v>
       </c>
       <c r="G488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -18092,10 +18134,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="F489" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18121,10 +18163,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="F490" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18150,10 +18192,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>885</v>
+        <v>341</v>
       </c>
       <c r="F491" t="s">
-        <v>886</v>
+        <v>342</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18179,10 +18221,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F492" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18208,10 +18250,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F493" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18237,10 +18279,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F494" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18266,13 +18308,13 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>893</v>
+        <v>637</v>
       </c>
       <c r="F495" t="s">
-        <v>894</v>
+        <v>638</v>
       </c>
       <c r="G495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H495" t="s">
         <v>4</v>
@@ -18301,7 +18343,7 @@
         <v>896</v>
       </c>
       <c r="G496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -18504,7 +18546,7 @@
         <v>910</v>
       </c>
       <c r="G503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -18585,10 +18627,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>627</v>
+        <v>915</v>
       </c>
       <c r="F506" t="s">
-        <v>628</v>
+        <v>916</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18614,10 +18656,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F507" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18643,10 +18685,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F508" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18672,10 +18714,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F509" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18701,10 +18743,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F510" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18730,10 +18772,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F511" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18759,10 +18801,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F512" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18788,10 +18830,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>927</v>
+        <v>641</v>
       </c>
       <c r="F513" t="s">
-        <v>928</v>
+        <v>642</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18823,7 +18865,7 @@
         <v>930</v>
       </c>
       <c r="G514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -19026,7 +19068,7 @@
         <v>944</v>
       </c>
       <c r="G521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -19055,7 +19097,7 @@
         <v>946</v>
       </c>
       <c r="G522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -19229,7 +19271,7 @@
         <v>958</v>
       </c>
       <c r="G528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -19258,7 +19300,7 @@
         <v>960</v>
       </c>
       <c r="G529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -19403,7 +19445,7 @@
         <v>970</v>
       </c>
       <c r="G534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -19432,7 +19474,7 @@
         <v>972</v>
       </c>
       <c r="G535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -19490,7 +19532,7 @@
         <v>976</v>
       </c>
       <c r="G537" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H537" t="s">
         <v>4</v>
@@ -19519,7 +19561,7 @@
         <v>978</v>
       </c>
       <c r="G538" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H538" t="s">
         <v>4</v>
@@ -19548,7 +19590,7 @@
         <v>980</v>
       </c>
       <c r="G539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H539" t="s">
         <v>4</v>
@@ -19606,7 +19648,7 @@
         <v>984</v>
       </c>
       <c r="G541" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -19693,7 +19735,7 @@
         <v>990</v>
       </c>
       <c r="G544" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H544" t="s">
         <v>4</v>
@@ -19722,7 +19764,7 @@
         <v>992</v>
       </c>
       <c r="G545" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -19751,7 +19793,7 @@
         <v>994</v>
       </c>
       <c r="G546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -19809,7 +19851,7 @@
         <v>998</v>
       </c>
       <c r="G548" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -19890,10 +19932,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="F551" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19919,10 +19961,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F552" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19948,10 +19990,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F553" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19977,10 +20019,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F554" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20006,10 +20048,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F555" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20035,10 +20077,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F556" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20064,10 +20106,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F557" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20093,10 +20135,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F558" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -21491,7 +21533,7 @@
         <v>1112</v>
       </c>
       <c r="G606" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -21520,7 +21562,7 @@
         <v>1114</v>
       </c>
       <c r="G607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H607" t="s">
         <v>4</v>
@@ -21694,7 +21736,7 @@
         <v>1126</v>
       </c>
       <c r="G613" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -21723,7 +21765,7 @@
         <v>1128</v>
       </c>
       <c r="G614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -21775,13 +21817,13 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1041</v>
+        <v>1131</v>
       </c>
       <c r="F616" t="s">
-        <v>1042</v>
+        <v>1132</v>
       </c>
       <c r="G616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H616" t="s">
         <v>4</v>
@@ -21804,10 +21846,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F617" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21833,10 +21875,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F618" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21862,10 +21904,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F619" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21891,10 +21933,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="F620" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21920,10 +21962,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F621" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21949,10 +21991,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F622" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21978,10 +22020,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1143</v>
+        <v>1055</v>
       </c>
       <c r="F623" t="s">
-        <v>1144</v>
+        <v>1056</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -22187,7 +22229,7 @@
         <v>1158</v>
       </c>
       <c r="G630" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H630" t="s">
         <v>4</v>
@@ -22332,7 +22374,7 @@
         <v>1168</v>
       </c>
       <c r="G635" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -22535,7 +22577,7 @@
         <v>1182</v>
       </c>
       <c r="G642" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -22564,7 +22606,7 @@
         <v>1184</v>
       </c>
       <c r="G643" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -22587,10 +22629,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F644" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22599,6 +22641,209 @@
         <v>4</v>
       </c>
       <c r="I644" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="s">
+        <v>0</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1</v>
+      </c>
+      <c r="D645" t="n">
+        <v>644</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F645" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1</v>
+      </c>
+      <c r="H645" t="s">
+        <v>4</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="s">
+        <v>0</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1</v>
+      </c>
+      <c r="D646" t="n">
+        <v>645</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F646" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1</v>
+      </c>
+      <c r="H646" t="s">
+        <v>4</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="s">
+        <v>0</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1</v>
+      </c>
+      <c r="D647" t="n">
+        <v>646</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F647" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1</v>
+      </c>
+      <c r="H647" t="s">
+        <v>4</v>
+      </c>
+      <c r="I647" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="s">
+        <v>0</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1</v>
+      </c>
+      <c r="D648" t="n">
+        <v>647</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F648" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1</v>
+      </c>
+      <c r="H648" t="s">
+        <v>4</v>
+      </c>
+      <c r="I648" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="s">
+        <v>0</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1</v>
+      </c>
+      <c r="D649" t="n">
+        <v>648</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1</v>
+      </c>
+      <c r="H649" t="s">
+        <v>4</v>
+      </c>
+      <c r="I649" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1</v>
+      </c>
+      <c r="D650" t="n">
+        <v>649</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G650" t="n">
+        <v>13</v>
+      </c>
+      <c r="H650" t="s">
+        <v>4</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1</v>
+      </c>
+      <c r="D651" t="n">
+        <v>650</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F651" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1</v>
+      </c>
+      <c r="H651" t="s">
+        <v>4</v>
+      </c>
+      <c r="I651" t="n">
         <v>3</v>
       </c>
     </row>
